--- a/有好货页面/id_1908032/需求表格.xlsx
+++ b/有好货页面/id_1908032/需求表格.xlsx
@@ -115,7 +115,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,7 +124,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -139,42 +145,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -188,26 +194,26 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -224,34 +230,34 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -271,6 +277,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff70ad47"/>
     </indexedColors>
@@ -471,17 +478,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -509,10 +516,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -760,12 +767,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1052,7 +1059,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1080,10 +1087,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">

--- a/有好货页面/id_1908032/需求表格.xlsx
+++ b/有好货页面/id_1908032/需求表格.xlsx
@@ -1458,7 +1458,7 @@
       <c r="A6" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" t="s" s="3">
         <v>14</v>
       </c>
       <c r="C6" s="4"/>
@@ -1472,7 +1472,7 @@
       <c r="A7" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" t="s" s="3">
         <v>14</v>
       </c>
       <c r="C7" s="4"/>

--- a/有好货页面/id_1908032/需求表格.xlsx
+++ b/有好货页面/id_1908032/需求表格.xlsx
@@ -1362,16 +1362,16 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
       <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
       <c r="F1" s="4"/>
@@ -1486,7 +1486,7 @@
       <c r="A8" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" t="s" s="3">
         <v>14</v>
       </c>
       <c r="C8" s="4"/>

--- a/有好货页面/id_1908032/需求表格.xlsx
+++ b/有好货页面/id_1908032/需求表格.xlsx
@@ -251,7 +251,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1385,10 +1385,10 @@
       <c r="B2" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" t="s" s="3">
         <v>8</v>
       </c>
       <c r="E2" s="4"/>
